--- a/gdp/Country_Score.xlsx
+++ b/gdp/Country_Score.xlsx
@@ -622,7 +622,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -692,15 +692,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -987,28 +987,27 @@
   <dimension ref="C2:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="12" width="8.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="12" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
@@ -1053,7 +1052,7 @@
         <v>-4.7</v>
       </c>
       <c r="E4" s="4">
-        <v>12</v>
+        <v>12.3668785</v>
       </c>
       <c r="F4">
         <v>26</v>
@@ -1093,7 +1092,7 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="E5" s="4">
-        <v>5</v>
+        <v>5.0006524099999998</v>
       </c>
       <c r="F5">
         <v>33</v>
@@ -1133,7 +1132,7 @@
         <v>-4.7</v>
       </c>
       <c r="E6" s="4">
-        <v>2.1</v>
+        <v>2.1660533900000001</v>
       </c>
       <c r="F6">
         <v>41</v>
@@ -1173,7 +1172,7 @@
         <v>-0.9</v>
       </c>
       <c r="E7" s="4">
-        <v>-0.5</v>
+        <v>-0.50750715000000002</v>
       </c>
       <c r="F7">
         <v>13</v>
@@ -1213,7 +1212,7 @@
         <v>-0.3</v>
       </c>
       <c r="E8" s="4">
-        <v>0.33</v>
+        <v>0.33158671000000001</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -1248,19 +1247,19 @@
     <row r="9" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
@@ -1304,8 +1303,16 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <f>RANK(F4,F$4:F$8,1)</f>
+        <f>RANK(F4,F$4:F$8,0)</f>
         <v>3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:I12" si="2">RANK(G4,G$4:G$8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="I12">
         <f>RANK(I4,I$4:I$8,0)</f>
@@ -1316,24 +1323,24 @@
         <v>2</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12:L12" si="2">RANK(K4,K$4:K$8,0)</f>
+        <f t="shared" ref="K12:L12" si="3">RANK(K4,K$4:K$8,0)</f>
         <v>1</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:N12" si="3">RANK(M4,M$4:M$8,0)</f>
+        <f t="shared" ref="M12:N12" si="4">RANK(M4,M$4:M$8,0)</f>
         <v>1</v>
       </c>
       <c r="N12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O12">
         <f>SUM(D12:N12)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
@@ -1341,44 +1348,52 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <f>RANK(D5,D$4:D$8,1)</f>
+        <f t="shared" ref="D13:E16" si="5">RANK(D5,D$4:D$8,1)</f>
         <v>1</v>
       </c>
       <c r="E13">
-        <f>RANK(E5,E$4:E$8,1)</f>
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ref="F13" si="4">RANK(F5,F$4:F$8,1)</f>
-        <v>4</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ref="I13:J13" si="5">RANK(I5,I$4:I$8,0)</f>
-        <v>2</v>
-      </c>
-      <c r="J13">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F16" si="6">RANK(F5,F$4:F$8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:I13" si="7">RANK(G5,G$4:G$8,0)</f>
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:J13" si="8">RANK(I5,I$4:I$8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
       <c r="K13">
-        <f t="shared" ref="K13:L13" si="6">RANK(K5,K$4:K$8,0)</f>
+        <f t="shared" ref="K13:L13" si="9">RANK(K5,K$4:K$8,0)</f>
         <v>3</v>
       </c>
       <c r="L13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:N13" si="7">RANK(M5,M$4:M$8,0)</f>
+        <f t="shared" ref="M13:N13" si="10">RANK(M5,M$4:M$8,0)</f>
         <v>2</v>
       </c>
       <c r="N13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:O16" si="8">SUM(D13:N13)</f>
-        <v>28</v>
+        <f t="shared" ref="O13:O16" si="11">SUM(D13:N13)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
@@ -1386,44 +1401,52 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <f>RANK(D6,D$4:D$8,1)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E14">
-        <f>RANK(E6,E$4:E$8,1)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14" si="9">RANK(F6,F$4:F$8,1)</f>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:I14" si="12">RANK(G6,G$4:G$8,0)</f>
         <v>5</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
       <c r="I14">
-        <f t="shared" ref="I14:J14" si="10">RANK(I6,I$4:I$8,0)</f>
+        <f t="shared" ref="I14:J14" si="13">RANK(I6,I$4:I$8,0)</f>
         <v>1</v>
       </c>
       <c r="J14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:L14" si="11">RANK(K6,K$4:K$8,0)</f>
+        <f t="shared" ref="K14:L14" si="14">RANK(K6,K$4:K$8,0)</f>
         <v>5</v>
       </c>
       <c r="L14">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:N14" si="15">RANK(M6,M$4:M$8,0)</f>
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ref="M14:N14" si="12">RANK(M6,M$4:M$8,0)</f>
-        <v>5</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="8"/>
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
@@ -1431,44 +1454,52 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <f>RANK(D7,D$4:D$8,1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E15">
-        <f>RANK(E7,E$4:E$8,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15" si="13">RANK(F7,F$4:F$8,1)</f>
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:I15" si="16">RANK(G7,G$4:G$8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:J15" si="17">RANK(I7,I$4:I$8,0)</f>
         <v>2</v>
       </c>
-      <c r="I15">
-        <f t="shared" ref="I15:J15" si="14">RANK(I7,I$4:I$8,0)</f>
+      <c r="J15">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:L15" si="18">RANK(K7,K$4:K$8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15:N15" si="19">RANK(M7,M$4:M$8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <f t="shared" ref="K15:L15" si="15">RANK(K7,K$4:K$8,0)</f>
-        <v>4</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ref="M15:N15" si="16">RANK(M7,M$4:M$8,0)</f>
-        <v>4</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
       <c r="O15">
-        <f t="shared" si="8"/>
-        <v>26</v>
+        <f t="shared" si="11"/>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
@@ -1476,44 +1507,52 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <f>RANK(D8,D$4:D$8,1)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="E16">
-        <f>RANK(E8,E$4:E$8,1)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16" si="17">RANK(F8,F$4:F$8,1)</f>
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:I16" si="20">RANK(G8,G$4:G$8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:J16" si="21">RANK(I8,I$4:I$8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="I16">
-        <f t="shared" ref="I16:J16" si="18">RANK(I8,I$4:I$8,0)</f>
+      <c r="K16">
+        <f t="shared" ref="K16:L16" si="22">RANK(K8,K$4:K$8,0)</f>
         <v>2</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <f t="shared" ref="K16:L16" si="19">RANK(K8,K$4:K$8,0)</f>
+      <c r="L16">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
       <c r="M16">
-        <f t="shared" ref="M16:N16" si="20">RANK(M8,M$4:M$8,0)</f>
+        <f t="shared" ref="M16:N16" si="23">RANK(M8,M$4:M$8,0)</f>
         <v>3</v>
       </c>
       <c r="N16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="O16">
-        <f t="shared" si="8"/>
-        <v>21</v>
+        <f t="shared" si="11"/>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1524,6 +1563,30 @@
     <mergeCell ref="G10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="I4:I9">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H9">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1535,31 +1598,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G9">
+  <conditionalFormatting sqref="F4:F9">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H9">
+  <conditionalFormatting sqref="E4:E9">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F9">
+  <conditionalFormatting sqref="D4:D9">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1571,7 +1634,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E9">
+  <conditionalFormatting sqref="D12:N16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1583,7 +1646,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D9">
+  <conditionalFormatting sqref="O12:O16">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1595,27 +1658,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:N16">
+  <conditionalFormatting sqref="N4:N8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:O16">
+  <conditionalFormatting sqref="F4:F8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/gdp/Country_Score.xlsx
+++ b/gdp/Country_Score.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\htdocs\gqueers_space_apps\gdp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Applications\Abyss Web Server\Cirrodocs\gqueers_space_apps\gdp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDF956A-8BF7-40EB-A756-1B641F4D3F0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="6300"/>
+    <workbookView xWindow="6240" yWindow="3180" windowWidth="21060" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="197">
   <si>
     <t>PH</t>
   </si>
@@ -615,14 +624,17 @@
   <si>
     <t>45-day Growth</t>
   </si>
+  <si>
+    <t>lockdown index</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -681,7 +693,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
@@ -692,15 +704,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -983,11 +995,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:O16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1000,15 +1012,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
@@ -1248,19 +1260,19 @@
     <row r="9" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
@@ -1304,7 +1316,7 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <f>RANK(F4,F$4:F$8,1)</f>
+        <f>RANK(F4,F$4:F$8,0)</f>
         <v>3</v>
       </c>
       <c r="I12">
@@ -1341,44 +1353,44 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <f>RANK(D5,D$4:D$8,1)</f>
+        <f t="shared" ref="D13:E16" si="4">RANK(D5,D$4:D$8,1)</f>
         <v>1</v>
       </c>
       <c r="E13">
-        <f>RANK(E5,E$4:E$8,1)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13" si="4">RANK(F5,F$4:F$8,1)</f>
+        <f t="shared" ref="F13:F16" si="5">RANK(F5,F$4:F$8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:J13" si="6">RANK(I5,I$4:I$8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="I13">
-        <f t="shared" ref="I13:J13" si="5">RANK(I5,I$4:I$8,0)</f>
+      <c r="K13">
+        <f t="shared" ref="K13:L13" si="7">RANK(K5,K$4:K$8,0)</f>
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:N13" si="8">RANK(M5,M$4:M$8,0)</f>
         <v>2</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="K13">
-        <f t="shared" ref="K13:L13" si="6">RANK(K5,K$4:K$8,0)</f>
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <f t="shared" ref="M13:N13" si="7">RANK(M5,M$4:M$8,0)</f>
-        <v>2</v>
-      </c>
       <c r="N13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:O16" si="8">SUM(D13:N13)</f>
-        <v>28</v>
+        <f t="shared" ref="O13:O16" si="9">SUM(D13:N13)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
@@ -1386,16 +1398,16 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <f>RANK(D6,D$4:D$8,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E14">
-        <f>RANK(E6,E$4:E$8,1)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14" si="9">RANK(F6,F$4:F$8,1)</f>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="I14">
         <f t="shared" ref="I14:J14" si="10">RANK(I6,I$4:I$8,0)</f>
@@ -1422,8 +1434,8 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <f t="shared" si="8"/>
-        <v>32</v>
+        <f t="shared" si="9"/>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
@@ -1431,44 +1443,44 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <f>RANK(D7,D$4:D$8,1)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E15">
-        <f>RANK(E7,E$4:E$8,1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15" si="13">RANK(F7,F$4:F$8,1)</f>
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:J15" si="13">RANK(I7,I$4:I$8,0)</f>
         <v>2</v>
       </c>
-      <c r="I15">
-        <f t="shared" ref="I15:J15" si="14">RANK(I7,I$4:I$8,0)</f>
+      <c r="J15">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:L15" si="14">RANK(K7,K$4:K$8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15:N15" si="15">RANK(M7,M$4:M$8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <f t="shared" ref="K15:L15" si="15">RANK(K7,K$4:K$8,0)</f>
-        <v>4</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ref="M15:N15" si="16">RANK(M7,M$4:M$8,0)</f>
-        <v>4</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
       <c r="O15">
-        <f t="shared" si="8"/>
-        <v>26</v>
+        <f t="shared" si="9"/>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
@@ -1476,44 +1488,49 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <f>RANK(D8,D$4:D$8,1)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E16">
-        <f>RANK(E8,E$4:E$8,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16" si="17">RANK(F8,F$4:F$8,1)</f>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:J16" si="16">RANK(I8,I$4:I$8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="I16">
-        <f t="shared" ref="I16:J16" si="18">RANK(I8,I$4:I$8,0)</f>
+      <c r="K16">
+        <f t="shared" ref="K16:L16" si="17">RANK(K8,K$4:K$8,0)</f>
         <v>2</v>
       </c>
-      <c r="J16">
+      <c r="L16">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:N16" si="18">RANK(M8,M$4:M$8,0)</f>
+        <v>3</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <f t="shared" ref="K16:L16" si="19">RANK(K8,K$4:K$8,0)</f>
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <f t="shared" ref="M16:N16" si="20">RANK(M8,M$4:M$8,0)</f>
         <v>3</v>
       </c>
-      <c r="N16">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
       <c r="O16">
-        <f t="shared" si="8"/>
-        <v>21</v>
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1524,6 +1541,18 @@
     <mergeCell ref="G10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="I4:I9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G9">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1535,7 +1564,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G9">
+  <conditionalFormatting sqref="H4:H9">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1547,19 +1576,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H9">
+  <conditionalFormatting sqref="F4:F9">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F9">
+  <conditionalFormatting sqref="E4:E9">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1571,7 +1600,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E9">
+  <conditionalFormatting sqref="D4:D9">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1583,7 +1612,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D9">
+  <conditionalFormatting sqref="D12:N16">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1595,7 +1624,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:N16">
+  <conditionalFormatting sqref="O12:O16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1607,15 +1636,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12:O16">
+  <conditionalFormatting sqref="F4:F8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1624,7 +1653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU132"/>
   <sheetViews>
     <sheetView topLeftCell="A99" workbookViewId="0">
@@ -20519,7 +20548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AT132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
